--- a/data/statistical/filled_NaN_xlsx/福建省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/福建省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>39.8</v>
       </c>
       <c r="E2">
-        <v>3731.37142804265</v>
+        <v>3731.371428236365</v>
       </c>
       <c r="F2">
         <v>6631.68</v>
@@ -609,85 +609,85 @@
         <v>5.78</v>
       </c>
       <c r="H2">
-        <v>46.88654540807329</v>
+        <v>46.88654540806601</v>
       </c>
       <c r="I2">
-        <v>4.107213622300151</v>
+        <v>4.10721362228287</v>
       </c>
       <c r="J2">
-        <v>54.85560058057308</v>
+        <v>54.85560064390302</v>
       </c>
       <c r="K2">
-        <v>32.42615563437721</v>
+        <v>32.42615563445725</v>
       </c>
       <c r="L2">
-        <v>0.6995998690890701</v>
+        <v>0.699599869114536</v>
       </c>
       <c r="M2">
-        <v>77.44740049820393</v>
+        <v>77.44740049575921</v>
       </c>
       <c r="N2">
-        <v>294.1134803900495</v>
+        <v>294.1134803774767</v>
       </c>
       <c r="O2">
-        <v>27.81345586944371</v>
+        <v>27.81345588481054</v>
       </c>
       <c r="P2">
-        <v>287.8294345567157</v>
+        <v>194.6742014827803</v>
       </c>
       <c r="Q2">
-        <v>100.3394061738926</v>
+        <v>98.03820012930376</v>
       </c>
       <c r="R2">
-        <v>26.1835603560321</v>
+        <v>26.18356035696343</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-42455.16770815849</v>
       </c>
       <c r="T2">
-        <v>172438.4879367398</v>
+        <v>223465.5900670208</v>
       </c>
       <c r="U2">
-        <v>0.7394503559645369</v>
+        <v>0.6845136837818422</v>
       </c>
       <c r="V2">
-        <v>34.48076367122121</v>
+        <v>34.48076368193142</v>
       </c>
       <c r="W2">
-        <v>70.65254944949993</v>
+        <v>70.65254944990738</v>
       </c>
       <c r="X2">
-        <v>10433.09558773041</v>
+        <v>10433.09558725357</v>
       </c>
       <c r="Y2">
-        <v>122.4783956366591</v>
+        <v>122.4783956375904</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-70828.08358716965</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>26.76539280851167</v>
       </c>
       <c r="AB2">
-        <v>1848317.939025879</v>
+        <v>-14198.81415891647</v>
       </c>
       <c r="AC2">
-        <v>3382793.333374023</v>
+        <v>261576.3096504211</v>
       </c>
       <c r="AD2">
-        <v>12905.30770051479</v>
+        <v>213.9947554320097</v>
       </c>
       <c r="AE2">
-        <v>325877.3490824699</v>
+        <v>5</v>
       </c>
       <c r="AF2">
-        <v>281799.6266460419</v>
+        <v>668.0198512385177</v>
       </c>
       <c r="AG2">
-        <v>402412.6435260773</v>
+        <v>617.6720008948847</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>841.5221352222709</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -719,7 +719,7 @@
         <v>4.1</v>
       </c>
       <c r="J3">
-        <v>43.02155450358987</v>
+        <v>43.02155456505716</v>
       </c>
       <c r="K3">
         <v>27.4897816267931</v>
@@ -743,13 +743,13 @@
         <v>99.94</v>
       </c>
       <c r="R3">
-        <v>21.74470586935058</v>
+        <v>21.74470586958341</v>
       </c>
       <c r="S3">
         <v>45650.9</v>
       </c>
       <c r="T3">
-        <v>200196.5672309435</v>
+        <v>267064.4648769769</v>
       </c>
       <c r="U3">
         <v>0.67</v>
@@ -767,31 +767,31 @@
         <v>110.5350879388861</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-45082.78431081772</v>
       </c>
       <c r="AA3">
-        <v>25.05944059276953</v>
+        <v>26.00208534642292</v>
       </c>
       <c r="AB3">
-        <v>1560363.423965454</v>
+        <v>-15837.04108381271</v>
       </c>
       <c r="AC3">
-        <v>2864740.226257324</v>
+        <v>218137.8274726868</v>
       </c>
       <c r="AD3">
-        <v>10418.39860868454</v>
+        <v>147.1940561085939</v>
       </c>
       <c r="AE3">
-        <v>298570.3529334068</v>
+        <v>5</v>
       </c>
       <c r="AF3">
-        <v>238688.5650968552</v>
+        <v>620.8145162327855</v>
       </c>
       <c r="AG3">
-        <v>345555.3494606018</v>
+        <v>173.856918143278</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>10253.66054221737</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>36.2827790863812</v>
+        <v>36.28277914226055</v>
       </c>
       <c r="K4">
         <v>28.629182680212</v>
@@ -847,7 +847,7 @@
         <v>99.95</v>
       </c>
       <c r="R4">
-        <v>17.9099999894388</v>
+        <v>17.90999998920597</v>
       </c>
       <c r="S4">
         <v>42212.8</v>
@@ -868,34 +868,34 @@
         <v>7164</v>
       </c>
       <c r="Y4">
-        <v>99.63106595585123</v>
+        <v>99.6310659549199</v>
       </c>
       <c r="Z4">
         <v>16306</v>
       </c>
       <c r="AA4">
-        <v>51.21628374443389</v>
+        <v>11.98840434379073</v>
       </c>
       <c r="AB4">
-        <v>1308613.73538208</v>
+        <v>-16455.64268350601</v>
       </c>
       <c r="AC4">
-        <v>2400770.547393799</v>
+        <v>178901.7368535995</v>
       </c>
       <c r="AD4">
-        <v>8237.777229189873</v>
+        <v>91.05819194763899</v>
       </c>
       <c r="AE4">
-        <v>272587.0322589874</v>
+        <v>5</v>
       </c>
       <c r="AF4">
-        <v>199074.5675849915</v>
+        <v>573.5856080275189</v>
       </c>
       <c r="AG4">
-        <v>293457.7876167297</v>
+        <v>29.83133391925546</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>4034.433874945613</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>34.63927432708442</v>
+        <v>34.63927438110113</v>
       </c>
       <c r="K5">
         <v>29.4396836463662</v>
@@ -972,34 +972,34 @@
         <v>8516</v>
       </c>
       <c r="Y5">
-        <v>89.76632968755439</v>
+        <v>89.76632968708873</v>
       </c>
       <c r="Z5">
         <v>24218</v>
       </c>
       <c r="AA5">
-        <v>76.86563438898884</v>
+        <v>23.87972734277681</v>
       </c>
       <c r="AB5">
-        <v>1093068.87336731</v>
+        <v>-16054.61895847321</v>
       </c>
       <c r="AC5">
-        <v>1990884.296844482</v>
+        <v>143868.0377941132</v>
       </c>
       <c r="AD5">
-        <v>6363.443561911583</v>
+        <v>45.587162964046</v>
       </c>
       <c r="AE5">
-        <v>247927.3870587349</v>
+        <v>5</v>
       </c>
       <c r="AF5">
-        <v>162957.6341094971</v>
+        <v>526.3331266227033</v>
       </c>
       <c r="AG5">
-        <v>246119.957988739</v>
+        <v>1227.687476743369</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>14582.66115430489</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>7374</v>
       </c>
       <c r="Y6">
-        <v>80.94087913399562</v>
+        <v>80.9408791330643</v>
       </c>
       <c r="Z6">
         <v>23352</v>
       </c>
       <c r="AA6">
-        <v>102.0074925264344</v>
+        <v>12.67029284141842</v>
       </c>
       <c r="AB6">
-        <v>913728.837890625</v>
+        <v>-14633.96990823746</v>
       </c>
       <c r="AC6">
-        <v>1635081.474578857</v>
+        <v>113036.7302942276</v>
       </c>
       <c r="AD6">
-        <v>4795.397607088089</v>
+        <v>10.78096913546324</v>
       </c>
       <c r="AE6">
-        <v>224591.4173331261</v>
+        <v>5</v>
       </c>
       <c r="AF6">
-        <v>130337.764670372</v>
+        <v>479.0570720183459</v>
       </c>
       <c r="AG6">
-        <v>203541.8605823517</v>
+        <v>941.1030630991061</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>6189.444924689958</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>36042</v>
       </c>
       <c r="AA7">
-        <v>126.6418581567705</v>
+        <v>30.13875066303655</v>
       </c>
       <c r="AB7">
-        <v>770593.6289367676</v>
+        <v>-12193.69553375244</v>
       </c>
       <c r="AC7">
-        <v>1333362.080596924</v>
+        <v>86407.81435394287</v>
       </c>
       <c r="AD7">
-        <v>3533.639364600182</v>
+        <v>-13.36038952320814</v>
       </c>
       <c r="AE7">
-        <v>202579.1230807304</v>
+        <v>5</v>
       </c>
       <c r="AF7">
-        <v>101214.9592676163</v>
+        <v>431.7574442144469</v>
       </c>
       <c r="AG7">
-        <v>165723.4953918457</v>
+        <v>531.7114750297147</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>15318.79417020179</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>33059</v>
       </c>
       <c r="AA8">
-        <v>150.7687312799972</v>
+        <v>17.78514302590102</v>
       </c>
       <c r="AB8">
-        <v>663663.2464752197</v>
+        <v>-8733.795834064484</v>
       </c>
       <c r="AC8">
-        <v>1085726.114883423</v>
+        <v>63981.28997325897</v>
       </c>
       <c r="AD8">
-        <v>2578.168834447861</v>
+        <v>-26.83691301196814</v>
       </c>
       <c r="AE8">
-        <v>181890.5043034554</v>
+        <v>5</v>
       </c>
       <c r="AF8">
-        <v>75589.21790218353</v>
+        <v>384.4342432110134</v>
       </c>
       <c r="AG8">
-        <v>132664.8624210358</v>
+        <v>529.0024198548649</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>11601.76114227285</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>33261</v>
       </c>
       <c r="AA9">
-        <v>174.3881118961144</v>
+        <v>26.03268250915928</v>
       </c>
       <c r="AB9">
-        <v>592937.6905822754</v>
+        <v>-4254.270809173584</v>
       </c>
       <c r="AC9">
-        <v>892173.5774536133</v>
+        <v>45757.1571521759</v>
       </c>
       <c r="AD9">
-        <v>1928.986016869545</v>
+        <v>-29.64860133826733</v>
       </c>
       <c r="AE9">
-        <v>162525.5610003471</v>
+        <v>5</v>
       </c>
       <c r="AF9">
-        <v>53460.54057407379</v>
+        <v>337.0874690080236</v>
       </c>
       <c r="AG9">
-        <v>104365.9616737366</v>
+        <v>254.5836984882718</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>13053.29100648837</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>29875</v>
       </c>
       <c r="AA10">
-        <v>197.5000000053551</v>
+        <v>22.05733718343919</v>
       </c>
       <c r="AB10">
-        <v>558416.9612121582</v>
+        <v>1244.879540205002</v>
       </c>
       <c r="AC10">
-        <v>752704.4683074951</v>
+        <v>31735.41589164734</v>
       </c>
       <c r="AD10">
-        <v>1586.090911388397</v>
+        <v>-21.79545450210571</v>
       </c>
       <c r="AE10">
-        <v>144484.2931704521</v>
+        <v>5</v>
       </c>
       <c r="AF10">
-        <v>34828.92728233337</v>
+        <v>289.7171216054994</v>
       </c>
       <c r="AG10">
-        <v>80826.79314041138</v>
+        <v>516.1257991230294</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>-643.9367508789993</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>212724</v>
       </c>
       <c r="AA11">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="AB11">
-        <v>527962</v>
+        <v>7415</v>
       </c>
       <c r="AC11">
-        <v>582328</v>
+        <v>7060</v>
       </c>
       <c r="AD11">
-        <v>1155</v>
+        <v>32</v>
       </c>
       <c r="AE11">
-        <v>157667</v>
+        <v>5</v>
       </c>
       <c r="AF11">
-        <v>3810</v>
+        <v>242.323201003448</v>
       </c>
       <c r="AG11">
-        <v>24667</v>
+        <v>1019.65115444013</v>
       </c>
       <c r="AH11">
-        <v>145570</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>98042</v>
       </c>
       <c r="AA12">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="AB12">
-        <v>577771</v>
+        <v>10760</v>
       </c>
       <c r="AC12">
-        <v>625912</v>
+        <v>7771</v>
       </c>
       <c r="AD12">
-        <v>1857</v>
+        <v>34</v>
       </c>
       <c r="AE12">
-        <v>96007</v>
+        <v>5</v>
       </c>
       <c r="AF12">
-        <v>2119</v>
+        <v>194.90570720184</v>
       </c>
       <c r="AG12">
-        <v>50950</v>
+        <v>3</v>
       </c>
       <c r="AH12">
-        <v>129904</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>100185</v>
       </c>
       <c r="AA13">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="AB13">
-        <v>705357</v>
+        <v>15532</v>
       </c>
       <c r="AC13">
-        <v>728582</v>
+        <v>37388</v>
       </c>
       <c r="AD13">
-        <v>2665</v>
+        <v>51</v>
       </c>
       <c r="AE13">
-        <v>79906</v>
+        <v>5</v>
       </c>
       <c r="AF13">
-        <v>11918</v>
+        <v>147.464640200698</v>
       </c>
       <c r="AG13">
-        <v>64382</v>
+        <v>804</v>
       </c>
       <c r="AH13">
-        <v>167595</v>
+        <v>9313.402072978401</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>44346</v>
       </c>
       <c r="AA14">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="AB14">
-        <v>804196</v>
+        <v>18470</v>
       </c>
       <c r="AC14">
-        <v>767538</v>
+        <v>17414</v>
       </c>
       <c r="AD14">
-        <v>3648</v>
+        <v>42</v>
       </c>
       <c r="AE14">
-        <v>81987</v>
+        <v>5</v>
       </c>
       <c r="AF14">
-        <v>4927</v>
+        <v>100</v>
       </c>
       <c r="AG14">
-        <v>79323</v>
+        <v>64</v>
       </c>
       <c r="AH14">
-        <v>119065</v>
+        <v>23424</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>253824</v>
       </c>
       <c r="AA15">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="AB15">
-        <v>936256</v>
+        <v>60445</v>
       </c>
       <c r="AC15">
-        <v>912795</v>
+        <v>28593</v>
       </c>
       <c r="AD15">
-        <v>4363</v>
+        <v>121</v>
       </c>
       <c r="AE15">
-        <v>45768</v>
+        <v>5</v>
       </c>
       <c r="AF15">
-        <v>8056</v>
+        <v>52.5117865997745</v>
       </c>
       <c r="AG15">
-        <v>49255</v>
+        <v>10</v>
       </c>
       <c r="AH15">
-        <v>135182</v>
+        <v>18223</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>228675</v>
       </c>
       <c r="AA16">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="AB16">
-        <v>1117716</v>
+        <v>90426</v>
       </c>
       <c r="AC16">
-        <v>1088803</v>
+        <v>56438</v>
       </c>
       <c r="AD16">
-        <v>6443</v>
+        <v>147</v>
       </c>
       <c r="AE16">
-        <v>53598</v>
+        <v>5</v>
       </c>
       <c r="AF16">
-        <v>7238</v>
+        <v>5</v>
       </c>
       <c r="AG16">
-        <v>25416</v>
+        <v>1722</v>
       </c>
       <c r="AH16">
-        <v>858407</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>455.1162</v>
       </c>
       <c r="K17">
-        <v>6.447968467517057</v>
+        <v>6.447968467546161</v>
       </c>
       <c r="L17">
-        <v>0.5730800397159328</v>
+        <v>0.573080039683191</v>
       </c>
       <c r="M17">
         <v>3.71448840022509</v>
@@ -2226,28 +2226,28 @@
         <v>233585</v>
       </c>
       <c r="AA17">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="AB17">
-        <v>1379717.1</v>
+        <v>84925.89999999999</v>
       </c>
       <c r="AC17">
-        <v>1324120.2</v>
+        <v>60384.2</v>
       </c>
       <c r="AD17">
-        <v>7452</v>
+        <v>693</v>
       </c>
       <c r="AE17">
-        <v>97962</v>
+        <v>5</v>
       </c>
       <c r="AF17">
-        <v>8449</v>
+        <v>-42.53535979932349</v>
       </c>
       <c r="AG17">
-        <v>18473</v>
+        <v>882.019860317151</v>
       </c>
       <c r="AH17">
-        <v>653190</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>539.5</v>
       </c>
       <c r="K18">
-        <v>4.928653533905162</v>
+        <v>4.928653533948818</v>
       </c>
       <c r="L18">
-        <v>0.525900103539243</v>
+        <v>0.5259001035028632</v>
       </c>
       <c r="M18">
         <v>3.03152940282717</v>
@@ -2312,13 +2312,13 @@
         <v>282504</v>
       </c>
       <c r="U18">
-        <v>0.8370903272383573</v>
+        <v>0.7011910976727103</v>
       </c>
       <c r="V18">
         <v>93.59999999999999</v>
       </c>
       <c r="W18">
-        <v>102.4456923083344</v>
+        <v>102.4456923072576</v>
       </c>
       <c r="X18">
         <v>14142</v>
@@ -2330,28 +2330,28 @@
         <v>193393</v>
       </c>
       <c r="AA18">
-        <v>368</v>
+        <v>18</v>
       </c>
       <c r="AB18">
-        <v>1688790</v>
+        <v>97984.7</v>
       </c>
       <c r="AC18">
-        <v>1663997.5</v>
+        <v>84617</v>
       </c>
       <c r="AD18">
-        <v>9614</v>
+        <v>390</v>
       </c>
       <c r="AE18">
-        <v>82335.7</v>
+        <v>5</v>
       </c>
       <c r="AF18">
-        <v>10577.9</v>
+        <v>-90.09429279818141</v>
       </c>
       <c r="AG18">
-        <v>78928.39999999999</v>
+        <v>20</v>
       </c>
       <c r="AH18">
-        <v>627210.4</v>
+        <v>4400.1</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>46.5</v>
       </c>
       <c r="E19">
-        <v>27449.77142885327</v>
+        <v>27449.77142859995</v>
       </c>
       <c r="F19">
         <v>30945.5485</v>
@@ -2386,10 +2386,10 @@
         <v>554.5</v>
       </c>
       <c r="K19">
-        <v>3.435909126666957</v>
+        <v>3.435909126725164</v>
       </c>
       <c r="L19">
-        <v>0.4738770072563057</v>
+        <v>0.4738770072126499</v>
       </c>
       <c r="M19">
         <v>2.95702323387192</v>
@@ -2416,13 +2416,13 @@
         <v>74443</v>
       </c>
       <c r="U19">
-        <v>0.8505616101811579</v>
+        <v>0.9498567450889951</v>
       </c>
       <c r="V19">
         <v>95.2</v>
       </c>
       <c r="W19">
-        <v>103.3874340665643</v>
+        <v>103.3874340652546</v>
       </c>
       <c r="X19">
         <v>19349</v>
@@ -2434,28 +2434,28 @@
         <v>214092</v>
       </c>
       <c r="AA19">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="AB19">
-        <v>1780050.9</v>
+        <v>46942.9</v>
       </c>
       <c r="AC19">
-        <v>1807635.8</v>
+        <v>53009.8</v>
       </c>
       <c r="AD19">
-        <v>12064</v>
+        <v>394</v>
       </c>
       <c r="AE19">
-        <v>38205.7</v>
+        <v>5</v>
       </c>
       <c r="AF19">
-        <v>10059.1</v>
+        <v>-137.6767989965811</v>
       </c>
       <c r="AG19">
-        <v>40908.5</v>
+        <v>550.595724769005</v>
       </c>
       <c r="AH19">
-        <v>491154.5</v>
+        <v>2265.2</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>47.4891</v>
       </c>
       <c r="E20">
-        <v>29290.01134482026</v>
+        <v>29290.01134455204</v>
       </c>
       <c r="F20">
         <v>30486.5373</v>
@@ -2490,10 +2490,10 @@
         <v>618.6807</v>
       </c>
       <c r="K20">
-        <v>1.96973524576606</v>
+        <v>1.969735245853371</v>
       </c>
       <c r="L20">
-        <v>0.4170107508580259</v>
+        <v>0.4170107508125511</v>
       </c>
       <c r="M20">
         <v>1.79521677919656</v>
@@ -2520,13 +2520,13 @@
         <v>83215</v>
       </c>
       <c r="U20">
-        <v>0.8205276637675324</v>
+        <v>0.9167450847775224</v>
       </c>
       <c r="V20">
         <v>97.2</v>
       </c>
       <c r="W20">
-        <v>104.2061958636332</v>
+        <v>104.2061958620907</v>
       </c>
       <c r="X20">
         <v>17412</v>
@@ -2538,28 +2538,28 @@
         <v>204315</v>
       </c>
       <c r="AA20">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="AB20">
-        <v>2006348</v>
+        <v>74988</v>
       </c>
       <c r="AC20">
-        <v>2086663</v>
+        <v>80283</v>
       </c>
       <c r="AD20">
-        <v>15120</v>
+        <v>671</v>
       </c>
       <c r="AE20">
-        <v>19435</v>
+        <v>5</v>
       </c>
       <c r="AF20">
-        <v>14093</v>
+        <v>-185.2828783945151</v>
       </c>
       <c r="AG20">
-        <v>95521</v>
+        <v>33</v>
       </c>
       <c r="AH20">
-        <v>308335</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>47.1014</v>
       </c>
       <c r="E21">
-        <v>31179.70014035702</v>
+        <v>31179.70014001429</v>
       </c>
       <c r="F21">
         <v>33942</v>
@@ -2594,25 +2594,25 @@
         <v>652.3836</v>
       </c>
       <c r="K21">
-        <v>0.5301318912388524</v>
+        <v>0.5301318913334399</v>
       </c>
       <c r="L21">
-        <v>0.3553013343534985</v>
+        <v>0.3553013343007478</v>
       </c>
       <c r="M21">
         <v>1.33299581479388</v>
       </c>
       <c r="N21">
-        <v>250.03308822494</v>
+        <v>250.0330882347189</v>
       </c>
       <c r="O21">
-        <v>113.1244362802245</v>
+        <v>113.1244362611324</v>
       </c>
       <c r="P21">
         <v>505.1</v>
       </c>
       <c r="Q21">
-        <v>100.086573664285</v>
+        <v>100.3619507302866</v>
       </c>
       <c r="R21">
         <v>44.6</v>
@@ -2621,49 +2621,49 @@
         <v>538770</v>
       </c>
       <c r="T21">
-        <v>147541.953675367</v>
+        <v>212972.2091580822</v>
       </c>
       <c r="U21">
-        <v>0.8923942368592819</v>
+        <v>1.116207518790945</v>
       </c>
       <c r="V21">
         <v>98.3</v>
       </c>
       <c r="W21">
-        <v>104.9019776994537</v>
+        <v>104.9019776976493</v>
       </c>
       <c r="X21">
-        <v>19868.74264603853</v>
+        <v>19868.74264627695</v>
       </c>
       <c r="Y21">
-        <v>73.27340659499168</v>
+        <v>73.27340660383925</v>
       </c>
       <c r="Z21">
         <v>96935</v>
       </c>
       <c r="AA21">
-        <v>424</v>
+        <v>26</v>
       </c>
       <c r="AB21">
-        <v>2589867</v>
+        <v>125807</v>
       </c>
       <c r="AC21">
-        <v>2770364</v>
+        <v>160976</v>
       </c>
       <c r="AD21">
-        <v>17417</v>
+        <v>718</v>
       </c>
       <c r="AE21">
-        <v>17099</v>
+        <v>5</v>
       </c>
       <c r="AF21">
-        <v>18111</v>
+        <v>-232.9125309919982</v>
       </c>
       <c r="AG21">
-        <v>152872</v>
+        <v>1244</v>
       </c>
       <c r="AH21">
-        <v>460781</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>46.9884</v>
       </c>
       <c r="E22">
-        <v>33118.83781540394</v>
+        <v>33118.83781506121</v>
       </c>
       <c r="F22">
         <v>35692.1324</v>
@@ -2692,82 +2692,82 @@
         <v>70.11</v>
       </c>
       <c r="I22">
-        <v>3.597389060872956</v>
+        <v>3.597389060890237</v>
       </c>
       <c r="J22">
-        <v>786.2761042807251</v>
+        <v>786.2761042248458</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-0.8829009368128027</v>
       </c>
       <c r="L22">
-        <v>0.2887487577336287</v>
+        <v>0.2887487576790591</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-1.226365956710652</v>
       </c>
       <c r="N22">
-        <v>267.4923503487371</v>
+        <v>267.4923503580503</v>
       </c>
       <c r="O22">
-        <v>131.5787164648063</v>
+        <v>131.5787164438516</v>
       </c>
       <c r="P22">
-        <v>175.3231328838192</v>
+        <v>208.4702942381631</v>
       </c>
       <c r="Q22">
-        <v>97.94045629723138</v>
+        <v>98.27146654919589</v>
       </c>
       <c r="R22">
-        <v>52.1947058821097</v>
+        <v>52.19470589002594</v>
       </c>
       <c r="S22">
         <v>483692</v>
       </c>
       <c r="T22">
-        <v>247528.5198149112</v>
+        <v>122412.147490027</v>
       </c>
       <c r="U22">
-        <v>0.8032258155485319</v>
+        <v>1.087718582953227</v>
       </c>
       <c r="V22">
-        <v>92.88848297786899</v>
+        <v>92.88848296680953</v>
       </c>
       <c r="W22">
-        <v>105.474779574055</v>
+        <v>105.4747795719304</v>
       </c>
       <c r="X22">
-        <v>22305.1195808053</v>
+        <v>22305.11958098412</v>
       </c>
       <c r="Y22">
-        <v>81.07652747631073</v>
+        <v>81.07652748702094</v>
       </c>
       <c r="Z22">
-        <v>191623.3921408653</v>
+        <v>191623.3921523094</v>
       </c>
       <c r="AA22">
-        <v>428</v>
+        <v>49</v>
       </c>
       <c r="AB22">
-        <v>3072912.5</v>
+        <v>181319.4</v>
       </c>
       <c r="AC22">
-        <v>3481492.5</v>
+        <v>222865.7</v>
       </c>
       <c r="AD22">
-        <v>21978</v>
+        <v>940</v>
       </c>
       <c r="AE22">
-        <v>38440.1</v>
+        <v>5</v>
       </c>
       <c r="AF22">
-        <v>138254.6</v>
+        <v>-280.5657567890157</v>
       </c>
       <c r="AG22">
-        <v>185713</v>
+        <v>857.1</v>
       </c>
       <c r="AH22">
-        <v>660606.5</v>
+        <v>7787.3</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>50</v>
       </c>
       <c r="E23">
-        <v>35107.42437000573</v>
+        <v>35107.4243696332</v>
       </c>
       <c r="F23">
-        <v>37841.43767085671</v>
+        <v>37841.43767032027</v>
       </c>
       <c r="G23">
         <v>-0.14</v>
       </c>
       <c r="H23">
-        <v>71.1551715685564</v>
+        <v>71.15517156852002</v>
       </c>
       <c r="I23">
-        <v>3.595009287910216</v>
+        <v>3.595009287930225</v>
       </c>
       <c r="J23">
-        <v>876.3474713843316</v>
+        <v>876.347471319139</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-2.26936323861446</v>
       </c>
       <c r="L23">
-        <v>0.2173530210093304</v>
+        <v>0.2173530209474848</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1.718791810795665</v>
       </c>
       <c r="N23">
-        <v>286.929540748708</v>
+        <v>286.9295407589525</v>
       </c>
       <c r="O23">
-        <v>151.4294195086695</v>
+        <v>151.4294194853865</v>
       </c>
       <c r="P23">
-        <v>234.8128004436253</v>
+        <v>176.4031580412631</v>
       </c>
       <c r="Q23">
-        <v>99.5144439900324</v>
+        <v>98.28838136821891</v>
       </c>
       <c r="R23">
-        <v>59.83882352779619</v>
+        <v>59.83882353780791</v>
       </c>
       <c r="S23">
-        <v>574211.1049027443</v>
+        <v>574211.1049108505</v>
       </c>
       <c r="T23">
-        <v>176483.4007878007</v>
+        <v>220885.3951728699</v>
       </c>
       <c r="U23">
-        <v>0.7795624750946928</v>
+        <v>0.6766712715029516</v>
       </c>
       <c r="V23">
-        <v>91.10215067735408</v>
+        <v>91.10215066513047</v>
       </c>
       <c r="W23">
-        <v>105.9246014874079</v>
+        <v>105.9246014850505</v>
       </c>
       <c r="X23">
-        <v>24935.47290867567</v>
+        <v>24935.47290879488</v>
       </c>
       <c r="Y23">
-        <v>89.91893407283351</v>
+        <v>89.91893408587202</v>
       </c>
       <c r="Z23">
-        <v>190794.5324883461</v>
+        <v>190794.5325021744</v>
       </c>
       <c r="AA23">
-        <v>451.7727272794582</v>
+        <v>33.13478387357774</v>
       </c>
       <c r="AB23">
-        <v>3404286.693496704</v>
+        <v>165519.7386484146</v>
       </c>
       <c r="AC23">
-        <v>3861198.02293396</v>
+        <v>231870.4114170074</v>
       </c>
       <c r="AD23">
-        <v>25000.63636314869</v>
+        <v>1050.795454543084</v>
       </c>
       <c r="AE23">
-        <v>30402.27954769135</v>
+        <v>5</v>
       </c>
       <c r="AF23">
-        <v>110850.781832695</v>
+        <v>-328.2425557855822</v>
       </c>
       <c r="AG23">
-        <v>207953.2341690063</v>
+        <v>478.2607008395952</v>
       </c>
       <c r="AH23">
-        <v>490910.0862579346</v>
+        <v>13929.06846703452</v>
       </c>
     </row>
   </sheetData>
